--- a/data/trans_dic/P56$pareja-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,17 +730,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,99</t>
+          <t>0,0; 57,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,75; 76,53</t>
+          <t>24,73; 75,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 84,34</t>
+          <t>4,24; 84,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,12 +750,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 38,46</t>
+          <t>3,97; 34,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,45</t>
+          <t>0,0; 46,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,29 +765,29 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,54</t>
+          <t>0,0; 69,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 32,19</t>
+          <t>3,77; 30,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,1; 49,13</t>
+          <t>13,35; 51,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 36,81</t>
+          <t>2,58; 40,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,58</t>
+          <t>0,0; 71,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,59 +875,59 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,6</t>
+          <t>0,0; 86,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,45; 67,99</t>
+          <t>20,99; 71,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,25</t>
+          <t>0,0; 41,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 26,89</t>
+          <t>3,1; 29,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,51</t>
+          <t>0,0; 33,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 23,41</t>
+          <t>8,08; 24,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 40,79</t>
+          <t>4,74; 39,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,79; 42,03</t>
+          <t>13,55; 44,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 39,23</t>
+          <t>4,07; 33,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 29,33</t>
+          <t>12,05; 30,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,17 +1010,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,62; 91,6</t>
+          <t>25,59; 91,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,81; 74,07</t>
+          <t>12,1; 85,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,64; 53,76</t>
+          <t>20,26; 53,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 37,81</t>
+          <t>5,05; 37,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,37</t>
+          <t>0,0; 63,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 22,08</t>
+          <t>6,49; 22,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,64</t>
+          <t>0,0; 36,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,52; 55,37</t>
+          <t>14,73; 53,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 56,76</t>
+          <t>9,36; 57,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,51; 30,45</t>
+          <t>13,75; 30,47</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1150,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 77,62</t>
+          <t>13,2; 87,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,18; 91,45</t>
+          <t>34,76; 91,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,83; 71,19</t>
+          <t>19,03; 70,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,51</t>
+          <t>0,0; 35,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 39,61</t>
+          <t>5,05; 39,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,67</t>
+          <t>0,0; 29,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 15,07</t>
+          <t>2,03; 16,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,46</t>
+          <t>0,0; 43,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,55; 45,57</t>
+          <t>13,87; 45,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 44,38</t>
+          <t>13,59; 43,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 29,73</t>
+          <t>9,62; 30,17</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,25</t>
+          <t>0,0; 67,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,54 +1300,54 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,56</t>
+          <t>0,0; 38,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,47</t>
+          <t>0,0; 48,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,06</t>
+          <t>0,0; 31,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 61,48</t>
+          <t>7,38; 53,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 16,09</t>
+          <t>1,97; 16,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 58,34</t>
+          <t>6,47; 56,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,16</t>
+          <t>0,0; 25,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 59,9</t>
+          <t>6,99; 54,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 19,95</t>
+          <t>3,49; 19,25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,64 +1430,64 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,85; 60,18</t>
+          <t>9,88; 69,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,8; 63,17</t>
+          <t>14,7; 68,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,29; 41,35</t>
+          <t>13,24; 39,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,01</t>
+          <t>0,0; 39,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,75</t>
+          <t>0,0; 31,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,37; 51,02</t>
+          <t>8,89; 53,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,83; 28,68</t>
+          <t>11,87; 29,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,02</t>
+          <t>0,0; 28,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,87; 34,61</t>
+          <t>6,86; 34,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,98; 49,17</t>
+          <t>14,37; 48,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,31; 29,35</t>
+          <t>14,09; 29,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,55; 84,27</t>
+          <t>15,6; 84,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,12; 79,93</t>
+          <t>20,28; 75,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,5; 66,47</t>
+          <t>21,5; 65,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,58; 56,27</t>
+          <t>11,36; 52,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1590,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,01; 36,26</t>
+          <t>6,19; 34,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 31,89</t>
+          <t>6,78; 31,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,68; 35,61</t>
+          <t>15,71; 35,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,66; 67,72</t>
+          <t>8,47; 59,36</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,39; 41,08</t>
+          <t>12,65; 40,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,53; 37,07</t>
+          <t>14,33; 37,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,54; 35,99</t>
+          <t>17,53; 36,45</t>
         </is>
       </c>
     </row>
@@ -1704,32 +1705,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,86; 66,87</t>
+          <t>23,15; 66,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,31</t>
+          <t>0,0; 70,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,32; 82,53</t>
+          <t>16,77; 83,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,27; 65,01</t>
+          <t>31,21; 65,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,39; 39,79</t>
+          <t>7,92; 38,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,24; 37,13</t>
+          <t>7,18; 36,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,27 +1740,27 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,29; 21,99</t>
+          <t>8,5; 21,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,28; 43,61</t>
+          <t>18,03; 43,62</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,43; 35,26</t>
+          <t>8,49; 35,45</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,19; 32,17</t>
+          <t>4,71; 34,99</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,63; 31,1</t>
+          <t>16,48; 30,78</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>27,88; 54,29</t>
+          <t>28,42; 56,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>30,44; 55,7</t>
+          <t>30,3; 55,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>37,16; 59,75</t>
+          <t>36,82; 59,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>28,84; 43,51</t>
+          <t>28,63; 44,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 20,78</t>
+          <t>6,22; 19,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,99; 20,21</t>
+          <t>9,84; 20,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,91; 20,91</t>
+          <t>8,65; 20,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,77; 18,11</t>
+          <t>12,01; 17,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,13; 29,62</t>
+          <t>15,67; 28,44</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>16,66; 27,62</t>
+          <t>17,51; 28,33</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,48; 29,97</t>
+          <t>18,6; 30,21</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,79; 24,2</t>
+          <t>17,78; 24,13</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda su pareja cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5018</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1865</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3223</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8241</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1865</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3520</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4031</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2456; 7537</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>213; 4228</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1366</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>843; 7311</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8573</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 973</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4088</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1067; 8605</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3782; 14718</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>343; 5423</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8525</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5207</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2074</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4407</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5873</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12931</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3185</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11080</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4941</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4652; 11710</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4731</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2561; 8689</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6090</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1143; 10988</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6003</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3388; 10323</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1023; 8570</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6587; 21560</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>949; 7807</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6522; 16305</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6223</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6777</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3040</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4155</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9262</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10932</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2934</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2371; 8458</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>727; 5167</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3710; 9858</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1778</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>973; 7308</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6838</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2176; 7695</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5570</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4203; 15153</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1572; 9713</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7127; 15791</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7049</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4361</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1809</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8710</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5319</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2580</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1146; 7625</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3478; 9164</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1766; 6566</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3822</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1135; 8905</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7335</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>402; 3258</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5848</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4318; 14265</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4746; 15335</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2795; 8763</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2604</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2095</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3097</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>868; 4281</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4537</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 616</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2891</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4374</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6192</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>894; 6463</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>326; 2778</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>856; 7533</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6818</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>902; 7045</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>841; 4636</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4157</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2144</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5296</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6224</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5332</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9453</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10224</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1336</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1052; 7424</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1589; 7453</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2188; 6530</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4187</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6431</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1964; 11716</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3770; 9297</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4036</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2116; 10695</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4731; 15913</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6802; 14182</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2593</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7061</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8450</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3758</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>7228</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>10288</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2593</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>13148</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>15678</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>14046</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>809; 4385</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3154; 11695</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4288; 12994</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1409; 6551</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1433</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2191; 12318</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2907; 13363</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6587; 14763</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>774; 5425</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6450; 20676</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>9007; 23530</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>9526; 19806</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>8315</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2197</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4770</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>10057</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5929</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>5552</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>8095</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>14243</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>7749</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>4771</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>18152</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>4447; 12826</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6257</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1526; 7596</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>6492; 13537</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2371; 11403</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2157; 11078</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2273</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>4875; 12444</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>8862; 21438</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3309; 13807</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1502; 11149</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>12877; 24047</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>20202</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>33638</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>33980</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>36720</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>10754</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>29704</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>24193</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>36915</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>30956</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>63342</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>58173</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>73635</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>13721; 27095</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>23790; 43266</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>26543; 42937</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>29216; 45587</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>5814; 18067</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>20190; 41405</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>14854; 35333</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>30139; 45077</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>22230; 40330</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>49691; 80387</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>45362; 73683</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>62793; 85196</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>